--- a/src/train_data/sample.xlsx
+++ b/src/train_data/sample.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G642"/>
+  <dimension ref="A1:G653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C39" sqref="A1:XFD1048576"/>
@@ -21888,7 +21888,7 @@
     </row>
     <row r="642">
       <c r="A642" s="5" t="n">
-        <v>45004.10961737383</v>
+        <v>45004.10961737268</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -21918,6 +21918,391 @@
       <c r="G642" t="inlineStr">
         <is>
           <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="5" t="n">
+        <v>45005.65406961805</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>./imgs/img/1-0.jpg</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/1-0_0e418fc7-c92e-42b1-9b03-b827b871f068-0.jpg</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="5" t="n">
+        <v>45005.65407473379</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>./imgs/img/1-1.jpg</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/1-0_5ca26b2f-c03a-487f-b973-ba91df884301-1.jpg</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="5" t="n">
+        <v>45005.65451439815</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>./imgs/img/2-0.jpg</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/2-1_fce99658-32fc-41a8-b425-b9cd10e5a613-0.jpg</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="5" t="n">
+        <v>45005.65451675926</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>./imgs/img/2-0.jpg</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/2-1_1f02b78a-2f28-41d2-9f4f-6b041c6f0be3-0.jpg</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="5" t="n">
+        <v>45005.6545211574</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>./imgs/img/2-1.jpg</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/2-1_b4d66ebd-67f7-4f09-b778-4e2b28c0dd3d-1.jpg</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="5" t="n">
+        <v>45005.65562952546</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>./imgs/img/3-1.jpg</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/3-2_9c4e5621-b841-4166-8cbf-41fe465d9417-1.jpg</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="5" t="n">
+        <v>45005.65579696759</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>./imgs/img/4-1.jpg</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/4-3_9c6b136f-ad25-4efe-b43c-3a87dc7d6265-1.jpg</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="5" t="n">
+        <v>45005.65579951389</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>./imgs/img/4-1.jpg</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/4-3_582e52ad-4c74-409c-a11c-110d317706a3-1.jpg</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="5" t="n">
+        <v>45005.65625535879</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>./imgs/img/5-1.jpg</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/5-4_49a03a0b-c33c-4744-9804-b2f563375b47-1.jpg</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="5" t="n">
+        <v>45005.65625773148</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>./imgs/img/5-1.jpg</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/5-4_2a53ea26-0e48-4b97-9a81-0a81080b5397-1.jpg</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="5" t="n">
+        <v>45005.6562602374</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>./imgs/img/5-1.jpg</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>./imgs/obj_db/5-4_3cf27707-b44f-4d72-ae6b-32f3b3680688-1.jpg</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>517</t>
         </is>
       </c>
     </row>
